--- a/InvoiceData.xlsx
+++ b/InvoiceData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -23,7 +23,7 @@
     <t>Voucher No</t>
   </si>
   <si>
-    <t>2</t>
+    <t>6</t>
   </si>
   <si>
     <t>Invoice Type</t>
@@ -72,12 +72,6 @@
   </si>
   <si>
     <t>Price per item</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1.0</t>
   </si>
 </sst>
 </file>
@@ -122,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -229,32 +223,22 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
